--- a/output/zaluski/2019/sheets/year_2019.xlsx
+++ b/output/zaluski/2019/sheets/year_2019.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,159 +481,102 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>68.28064516129034</v>
+        <v>68.57023283365423</v>
       </c>
       <c r="C2" t="n">
-        <v>60.49032258064517</v>
+        <v>61.23337062362791</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>68.24285714285715</v>
+        <v>68.46520110046501</v>
       </c>
       <c r="C3" t="n">
-        <v>60.23571428571428</v>
+        <v>60.68532560129263</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.03870967741936</v>
+        <v>68.32383703753855</v>
       </c>
       <c r="C4" t="n">
-        <v>27.51612903225806</v>
+        <v>61.68795881040673</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3.66</v>
+        <v>69.66734858080291</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>61.1404591556763</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>4.964516129032258</v>
+        <v>70.1976627873686</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>62.36246342370378</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>5.013333333333334</v>
+        <v>70.12407995653075</v>
       </c>
       <c r="C7" t="n">
-        <v>2.323333333333333</v>
+        <v>62.23399559924063</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>69.63548387096775</v>
+        <v>69.28627714983266</v>
       </c>
       <c r="C8" t="n">
-        <v>60.85161290322579</v>
+        <v>60.33337204975766</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>70.17419354838708</v>
+        <v>70.27735824075106</v>
       </c>
       <c r="C9" t="n">
-        <v>61.93225806451613</v>
+        <v>63.26075549643546</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>70.07999999999998</v>
+        <v>68.85752551515048</v>
       </c>
       <c r="C10" t="n">
-        <v>61.85666666666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>35.75483870967742</v>
-      </c>
-      <c r="C11" t="n">
-        <v>31.04838709677419</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>70.22</v>
-      </c>
-      <c r="C12" t="n">
-        <v>62.84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>68.70322580645161</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60.47741935483871</v>
+        <v>61.19193028527057</v>
       </c>
     </row>
   </sheetData>
